--- a/input/raw_data/final_report/bib_search_screen_end.xlsx
+++ b/input/raw_data/final_report/bib_search_screen_end.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B8CE424-AE83-F047-8AED-ABBE1C44BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27FE91-7CAC-2640-B819-FE17F1DE9C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
+    <workbookView xWindow="20520" yWindow="880" windowWidth="20600" windowHeight="24440" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
   <sheets>
     <sheet name="bib_search_screen_start" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="1054">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1643,9 +1643,6 @@
     <t>Edmonton, Alberta, Canada</t>
   </si>
   <si>
-    <t>One intentional, one unitentional</t>
-  </si>
-  <si>
     <t>Accidental - "A 20-year-old Asian female presented to the emergency room complaining of having swallowed her toothbrush. She stated that she had been attempting to scratch her pharynx with the handle of her toothbrush when a spontaneous gag reflex caused her to swallow the toothbrush"</t>
   </si>
   <si>
@@ -3180,6 +3177,12 @@
   </si>
   <si>
     <t>10.1177/003693309504000104</t>
+  </si>
+  <si>
+    <t>Motivation not documented</t>
+  </si>
+  <si>
+    <t>One intentional, one unitentional. Motivation not documented.</t>
   </si>
 </sst>
 </file>
@@ -4053,9 +4056,9 @@
   <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4189,14 +4192,14 @@
         <v>1962</v>
       </c>
       <c r="C3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" t="s">
         <v>543</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>544</v>
       </c>
-      <c r="E3" t="s">
-        <v>545</v>
-      </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>448</v>
       </c>
       <c r="U3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -4224,10 +4227,10 @@
         <v>1967</v>
       </c>
       <c r="C4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" t="s">
         <v>546</v>
-      </c>
-      <c r="D4" t="s">
-        <v>547</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -4248,7 +4251,7 @@
         <v>448</v>
       </c>
       <c r="U4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -4271,7 +4274,10 @@
         <v>17</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -4302,6 +4308,9 @@
       </c>
       <c r="T5" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -4426,7 +4435,10 @@
         <v>17</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -4460,6 +4472,9 @@
       </c>
       <c r="T8" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -4482,7 +4497,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -4516,6 +4534,9 @@
       </c>
       <c r="T9" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -4526,13 +4547,13 @@
         <v>1977</v>
       </c>
       <c r="C10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" t="s">
         <v>548</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>549</v>
-      </c>
-      <c r="E10" t="s">
-        <v>550</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -4553,7 +4574,7 @@
         <v>448</v>
       </c>
       <c r="U10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -4626,13 +4647,13 @@
         <v>1980</v>
       </c>
       <c r="C12" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" t="s">
         <v>551</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>552</v>
-      </c>
-      <c r="E12" t="s">
-        <v>553</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -4644,16 +4665,16 @@
         <v>9</v>
       </c>
       <c r="R12" t="s">
+        <v>635</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U12" t="s">
         <v>636</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U12" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -4664,14 +4685,14 @@
         <v>1982</v>
       </c>
       <c r="C13" t="s">
+        <v>553</v>
+      </c>
+      <c r="D13" t="s">
         <v>554</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>555</v>
       </c>
-      <c r="E13" t="s">
-        <v>556</v>
-      </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
@@ -4688,7 +4709,7 @@
         <v>448</v>
       </c>
       <c r="U13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -4711,7 +4732,10 @@
         <v>17</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -4745,6 +4769,9 @@
       </c>
       <c r="T14" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -4891,7 +4918,10 @@
         <v>17</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -4922,6 +4952,9 @@
       </c>
       <c r="T17" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -5003,7 +5036,10 @@
         <v>17</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -5047,14 +5083,14 @@
         <v>1984</v>
       </c>
       <c r="C20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D20" t="s">
         <v>557</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>558</v>
       </c>
-      <c r="E20" t="s">
-        <v>559</v>
-      </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
@@ -5071,7 +5107,7 @@
         <v>448</v>
       </c>
       <c r="U20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -5176,13 +5212,13 @@
         <v>1986</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -5200,7 +5236,7 @@
         <v>448</v>
       </c>
       <c r="U23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -5470,14 +5506,14 @@
         <v>1990</v>
       </c>
       <c r="C29" t="s">
+        <v>561</v>
+      </c>
+      <c r="D29" t="s">
         <v>562</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>563</v>
       </c>
-      <c r="E29" t="s">
-        <v>564</v>
-      </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
@@ -5494,7 +5530,7 @@
         <v>448</v>
       </c>
       <c r="U29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -5555,14 +5591,14 @@
         <v>1990</v>
       </c>
       <c r="C31" t="s">
+        <v>564</v>
+      </c>
+      <c r="D31" t="s">
         <v>565</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>566</v>
       </c>
-      <c r="E31" t="s">
-        <v>567</v>
-      </c>
       <c r="F31" t="s">
         <v>17</v>
       </c>
@@ -5579,7 +5615,7 @@
         <v>448</v>
       </c>
       <c r="U31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -5602,7 +5638,10 @@
         <v>17</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -5887,10 +5926,10 @@
         <v>1996</v>
       </c>
       <c r="C38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D38" t="s">
         <v>568</v>
-      </c>
-      <c r="D38" t="s">
-        <v>569</v>
       </c>
       <c r="E38" t="s">
         <v>406</v>
@@ -5911,7 +5950,7 @@
         <v>448</v>
       </c>
       <c r="U38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -5922,10 +5961,10 @@
         <v>1996</v>
       </c>
       <c r="C39" t="s">
+        <v>569</v>
+      </c>
+      <c r="D39" t="s">
         <v>570</v>
-      </c>
-      <c r="D39" t="s">
-        <v>571</v>
       </c>
       <c r="E39" t="s">
         <v>254</v>
@@ -5946,7 +5985,7 @@
         <v>448</v>
       </c>
       <c r="U39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -6007,10 +6046,10 @@
         <v>1997</v>
       </c>
       <c r="C41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D41" t="s">
         <v>572</v>
-      </c>
-      <c r="D41" t="s">
-        <v>573</v>
       </c>
       <c r="E41" t="s">
         <v>71</v>
@@ -6026,7 +6065,7 @@
       </c>
       <c r="M41" s="1"/>
       <c r="R41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>448</v>
@@ -6035,7 +6074,7 @@
         <v>448</v>
       </c>
       <c r="U41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -6058,7 +6097,10 @@
         <v>17</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -6091,7 +6133,7 @@
         <v>448</v>
       </c>
       <c r="U42" t="s">
-        <v>540</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -6126,13 +6168,13 @@
         <v>457</v>
       </c>
       <c r="R43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>448</v>
       </c>
       <c r="U43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -6167,7 +6209,7 @@
         <v>472</v>
       </c>
       <c r="R44" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>448</v>
@@ -6214,16 +6256,16 @@
         <v>457</v>
       </c>
       <c r="O45" t="s">
+        <v>639</v>
+      </c>
+      <c r="P45" t="s">
         <v>640</v>
-      </c>
-      <c r="P45" t="s">
-        <v>641</v>
       </c>
       <c r="Q45" t="s">
         <v>481</v>
       </c>
       <c r="R45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>454</v>
@@ -6252,7 +6294,10 @@
         <v>17</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
@@ -6309,16 +6354,16 @@
         <v>457</v>
       </c>
       <c r="R47" t="s">
+        <v>642</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U47" t="s">
         <v>643</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U47" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -6329,14 +6374,14 @@
         <v>1998</v>
       </c>
       <c r="C48" t="s">
+        <v>573</v>
+      </c>
+      <c r="D48" t="s">
         <v>574</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>575</v>
       </c>
-      <c r="E48" t="s">
-        <v>576</v>
-      </c>
       <c r="F48" t="s">
         <v>17</v>
       </c>
@@ -6353,7 +6398,7 @@
         <v>448</v>
       </c>
       <c r="U48" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -6376,7 +6421,10 @@
         <v>17</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -6391,22 +6439,25 @@
         <v>509</v>
       </c>
       <c r="O49" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="R49" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>454</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -6417,19 +6468,22 @@
         <v>1999</v>
       </c>
       <c r="C50" t="s">
+        <v>576</v>
+      </c>
+      <c r="D50" t="s">
         <v>577</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>578</v>
       </c>
-      <c r="E50" t="s">
-        <v>579</v>
-      </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>14</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
@@ -6444,19 +6498,22 @@
         <v>478</v>
       </c>
       <c r="O50" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P50" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q50" t="s">
         <v>649</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>650</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>454</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U50" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -6548,16 +6605,16 @@
         <v>457</v>
       </c>
       <c r="O52" t="s">
+        <v>651</v>
+      </c>
+      <c r="P52" t="s">
         <v>652</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>653</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>654</v>
-      </c>
-      <c r="R52" t="s">
-        <v>655</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>448</v>
@@ -6601,16 +6658,16 @@
         <v>457</v>
       </c>
       <c r="O53" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="P53" t="s">
         <v>656</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="R53" t="s">
         <v>658</v>
-      </c>
-      <c r="R53" t="s">
-        <v>659</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>454</v>
@@ -6651,22 +6708,22 @@
         <v>0</v>
       </c>
       <c r="M54" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>478</v>
       </c>
       <c r="O54" t="s">
+        <v>712</v>
+      </c>
+      <c r="P54" t="s">
         <v>713</v>
-      </c>
-      <c r="P54" t="s">
-        <v>714</v>
       </c>
       <c r="Q54" t="s">
         <v>475</v>
       </c>
       <c r="R54" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>448</v>
@@ -6686,13 +6743,13 @@
         <v>2001</v>
       </c>
       <c r="C55" t="s">
+        <v>579</v>
+      </c>
+      <c r="D55" t="s">
         <v>580</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>581</v>
-      </c>
-      <c r="E55" t="s">
-        <v>582</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -6713,7 +6770,7 @@
         <v>457</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>448</v>
@@ -6722,7 +6779,7 @@
         <v>448</v>
       </c>
       <c r="U55" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -6745,7 +6802,10 @@
         <v>17</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>14</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
@@ -6760,16 +6820,16 @@
         <v>472</v>
       </c>
       <c r="O56" t="s">
+        <v>714</v>
+      </c>
+      <c r="P56" t="s">
         <v>715</v>
       </c>
-      <c r="P56" t="s">
+      <c r="Q56" t="s">
         <v>716</v>
       </c>
-      <c r="Q56" t="s">
-        <v>717</v>
-      </c>
       <c r="R56" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>454</v>
@@ -6810,16 +6870,16 @@
         <v>478</v>
       </c>
       <c r="O57" t="s">
+        <v>717</v>
+      </c>
+      <c r="P57" t="s">
         <v>718</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>719</v>
       </c>
-      <c r="Q57" t="s">
-        <v>720</v>
-      </c>
       <c r="R57" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>448</v>
@@ -6869,13 +6929,13 @@
         <v>457</v>
       </c>
       <c r="O58" t="s">
+        <v>660</v>
+      </c>
+      <c r="P58" t="s">
         <v>661</v>
       </c>
-      <c r="P58" t="s">
-        <v>662</v>
-      </c>
       <c r="R58" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S58" t="s">
         <v>454</v>
@@ -6922,17 +6982,17 @@
         <v>472</v>
       </c>
       <c r="O59" t="s">
+        <v>665</v>
+      </c>
+      <c r="P59" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q59" t="s">
         <v>666</v>
       </c>
-      <c r="P59" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>667</v>
       </c>
-      <c r="R59" t="s">
-        <v>668</v>
-      </c>
       <c r="S59" t="s">
         <v>448</v>
       </c>
@@ -6940,7 +7000,7 @@
         <v>448</v>
       </c>
       <c r="U59" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -6984,25 +7044,25 @@
         <v>478</v>
       </c>
       <c r="O60" t="s">
+        <v>668</v>
+      </c>
+      <c r="P60" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>662</v>
+      </c>
+      <c r="R60" t="s">
         <v>669</v>
       </c>
-      <c r="P60" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>663</v>
-      </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
+        <v>448</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U60" t="s">
         <v>670</v>
-      </c>
-      <c r="S60" t="s">
-        <v>448</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U60" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -7040,16 +7100,16 @@
         <v>457</v>
       </c>
       <c r="O61" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P61" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q61" t="s">
         <v>673</v>
       </c>
-      <c r="Q61" t="s">
-        <v>674</v>
-      </c>
       <c r="R61" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S61" t="s">
         <v>448</v>
@@ -7099,13 +7159,13 @@
         <v>457</v>
       </c>
       <c r="P62" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q62" t="s">
         <v>678</v>
       </c>
-      <c r="Q62" t="s">
-        <v>679</v>
-      </c>
       <c r="R62" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S62" t="s">
         <v>448</v>
@@ -7114,7 +7174,7 @@
         <v>448</v>
       </c>
       <c r="U62" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -7137,7 +7197,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>14</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
@@ -7152,16 +7215,16 @@
         <v>478</v>
       </c>
       <c r="O63" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>683</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>454</v>
@@ -7190,7 +7253,10 @@
         <v>17</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>15</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
@@ -7205,16 +7271,16 @@
         <v>478</v>
       </c>
       <c r="O64" t="s">
+        <v>684</v>
+      </c>
+      <c r="P64" t="s">
         <v>685</v>
-      </c>
-      <c r="P64" t="s">
-        <v>686</v>
       </c>
       <c r="Q64" t="s">
         <v>470</v>
       </c>
       <c r="R64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S64" t="s">
         <v>454</v>
@@ -7261,7 +7327,7 @@
         <v>478</v>
       </c>
       <c r="R65" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S65" t="s">
         <v>448</v>
@@ -7270,7 +7336,7 @@
         <v>448</v>
       </c>
       <c r="U65" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -7293,7 +7359,10 @@
         <v>17</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>14</v>
       </c>
       <c r="I66" t="b">
         <v>1</v>
@@ -7305,22 +7374,25 @@
         <v>457</v>
       </c>
       <c r="O66" t="s">
+        <v>688</v>
+      </c>
+      <c r="P66" t="s">
         <v>689</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>690</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>691</v>
-      </c>
-      <c r="R66" t="s">
-        <v>692</v>
       </c>
       <c r="S66" t="s">
         <v>454</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U66" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -7364,16 +7436,16 @@
         <v>457</v>
       </c>
       <c r="O67" t="s">
+        <v>692</v>
+      </c>
+      <c r="P67" t="s">
         <v>693</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>694</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>695</v>
-      </c>
-      <c r="R67" t="s">
-        <v>696</v>
       </c>
       <c r="S67" t="s">
         <v>448</v>
@@ -7420,16 +7492,16 @@
         <v>457</v>
       </c>
       <c r="O68" t="s">
+        <v>696</v>
+      </c>
+      <c r="P68" t="s">
         <v>697</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>698</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>699</v>
-      </c>
-      <c r="R68" t="s">
-        <v>700</v>
       </c>
       <c r="S68" t="s">
         <v>454</v>
@@ -7458,7 +7530,10 @@
         <v>17</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>14</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
@@ -7476,22 +7551,25 @@
         <v>457</v>
       </c>
       <c r="O69" t="s">
+        <v>700</v>
+      </c>
+      <c r="P69" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q69" t="s">
         <v>701</v>
       </c>
-      <c r="P69" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>702</v>
-      </c>
-      <c r="R69" t="s">
-        <v>703</v>
       </c>
       <c r="S69" t="s">
         <v>454</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U69" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -7502,13 +7580,13 @@
         <v>2004</v>
       </c>
       <c r="C70" t="s">
+        <v>582</v>
+      </c>
+      <c r="D70" t="s">
         <v>583</v>
       </c>
-      <c r="D70" t="s">
-        <v>584</v>
-      </c>
       <c r="E70" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -7526,7 +7604,7 @@
         <v>448</v>
       </c>
       <c r="U70" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -7561,7 +7639,7 @@
         <v>457</v>
       </c>
       <c r="R71" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S71" t="s">
         <v>448</v>
@@ -7570,7 +7648,7 @@
         <v>448</v>
       </c>
       <c r="U71" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -7608,16 +7686,16 @@
         <v>478</v>
       </c>
       <c r="R72" t="s">
+        <v>706</v>
+      </c>
+      <c r="S72" t="s">
+        <v>448</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U72" t="s">
         <v>707</v>
-      </c>
-      <c r="S72" t="s">
-        <v>448</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U72" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -7649,16 +7727,16 @@
         <v>45763.743750000001</v>
       </c>
       <c r="R73" t="s">
+        <v>708</v>
+      </c>
+      <c r="S73" t="s">
+        <v>448</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U73" t="s">
         <v>709</v>
-      </c>
-      <c r="S73" t="s">
-        <v>448</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U73" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -7669,10 +7747,10 @@
         <v>2005</v>
       </c>
       <c r="C74" t="s">
+        <v>584</v>
+      </c>
+      <c r="D74" t="s">
         <v>585</v>
-      </c>
-      <c r="D74" t="s">
-        <v>586</v>
       </c>
       <c r="E74" t="s">
         <v>349</v>
@@ -7696,7 +7774,7 @@
         <v>448</v>
       </c>
       <c r="U74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -7737,16 +7815,16 @@
         <v>457</v>
       </c>
       <c r="O75" t="s">
+        <v>721</v>
+      </c>
+      <c r="P75" t="s">
         <v>722</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>723</v>
       </c>
-      <c r="Q75" t="s">
-        <v>724</v>
-      </c>
       <c r="R75" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="S75" t="s">
         <v>454</v>
@@ -7775,7 +7853,10 @@
         <v>17</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>14</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -7793,16 +7874,16 @@
         <v>457</v>
       </c>
       <c r="O76" t="s">
+        <v>728</v>
+      </c>
+      <c r="P76" t="s">
         <v>729</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>730</v>
       </c>
-      <c r="Q76" t="s">
-        <v>731</v>
-      </c>
       <c r="R76" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="S76" t="s">
         <v>454</v>
@@ -7849,16 +7930,16 @@
         <v>457</v>
       </c>
       <c r="O77" t="s">
+        <v>731</v>
+      </c>
+      <c r="P77" t="s">
         <v>732</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>733</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>734</v>
-      </c>
-      <c r="R77" t="s">
-        <v>735</v>
       </c>
       <c r="S77" t="s">
         <v>454</v>
@@ -7905,16 +7986,16 @@
         <v>457</v>
       </c>
       <c r="O78" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P78" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q78" t="s">
         <v>736</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>737</v>
-      </c>
-      <c r="R78" t="s">
-        <v>738</v>
       </c>
       <c r="S78" t="s">
         <v>454</v>
@@ -7964,19 +8045,19 @@
         <v>457</v>
       </c>
       <c r="O79" t="s">
+        <v>740</v>
+      </c>
+      <c r="R79" t="s">
+        <v>739</v>
+      </c>
+      <c r="S79" t="s">
+        <v>448</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U79" t="s">
         <v>741</v>
-      </c>
-      <c r="R79" t="s">
-        <v>740</v>
-      </c>
-      <c r="S79" t="s">
-        <v>448</v>
-      </c>
-      <c r="T79" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U79" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -7999,7 +8080,10 @@
         <v>17</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>14</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
@@ -8014,16 +8098,16 @@
         <v>478</v>
       </c>
       <c r="O80" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="P80" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="Q80" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="Q80" s="1" t="s">
+      <c r="R80" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>454</v>
@@ -8040,13 +8124,13 @@
         <v>2006</v>
       </c>
       <c r="C81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D81" t="s">
         <v>587</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>588</v>
-      </c>
-      <c r="E81" t="s">
-        <v>589</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -8070,7 +8154,7 @@
         <v>448</v>
       </c>
       <c r="U81" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -8093,7 +8177,10 @@
         <v>17</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>14</v>
       </c>
       <c r="J82" t="b">
         <v>0</v>
@@ -8108,16 +8195,16 @@
         <v>457</v>
       </c>
       <c r="O82" t="s">
+        <v>747</v>
+      </c>
+      <c r="P82" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q82" t="s">
         <v>748</v>
       </c>
-      <c r="P82" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>749</v>
-      </c>
-      <c r="R82" t="s">
-        <v>750</v>
       </c>
       <c r="S82" t="s">
         <v>454</v>
@@ -8164,16 +8251,16 @@
         <v>472</v>
       </c>
       <c r="O83" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>448</v>
@@ -8202,7 +8289,10 @@
         <v>17</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>14</v>
       </c>
       <c r="J84" t="b">
         <v>0</v>
@@ -8217,16 +8307,16 @@
         <v>457</v>
       </c>
       <c r="O84" t="s">
+        <v>754</v>
+      </c>
+      <c r="P84" t="s">
         <v>755</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>756</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>757</v>
-      </c>
-      <c r="R84" t="s">
-        <v>758</v>
       </c>
       <c r="S84" t="s">
         <v>454</v>
@@ -8267,13 +8357,13 @@
         <v>472</v>
       </c>
       <c r="O85" t="s">
+        <v>758</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U85" t="s">
         <v>759</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U85" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -8296,7 +8386,10 @@
         <v>17</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>14</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -8314,16 +8407,16 @@
         <v>457</v>
       </c>
       <c r="O86" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="P86" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="Q86" s="1" t="s">
+      <c r="R86" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>454</v>
@@ -8373,16 +8466,16 @@
         <v>457</v>
       </c>
       <c r="O87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="P87" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q87" t="s">
         <v>766</v>
       </c>
-      <c r="Q87" t="s">
-        <v>767</v>
-      </c>
       <c r="R87" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S87" t="s">
         <v>448</v>
@@ -8432,16 +8525,16 @@
         <v>457</v>
       </c>
       <c r="O88" t="s">
+        <v>768</v>
+      </c>
+      <c r="P88" t="s">
         <v>769</v>
-      </c>
-      <c r="P88" t="s">
-        <v>770</v>
       </c>
       <c r="Q88" t="s">
         <v>481</v>
       </c>
       <c r="R88" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S88" t="s">
         <v>454</v>
@@ -8470,7 +8563,10 @@
         <v>17</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>14</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -8488,16 +8584,16 @@
         <v>457</v>
       </c>
       <c r="O89" t="s">
+        <v>771</v>
+      </c>
+      <c r="P89" t="s">
         <v>772</v>
       </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>773</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>774</v>
-      </c>
-      <c r="R89" t="s">
-        <v>775</v>
       </c>
       <c r="S89" t="s">
         <v>454</v>
@@ -8547,22 +8643,22 @@
         <v>457</v>
       </c>
       <c r="P90" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>673</v>
+      </c>
+      <c r="R90" t="s">
         <v>776</v>
       </c>
-      <c r="Q90" t="s">
-        <v>674</v>
-      </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
+        <v>448</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U90" t="s">
         <v>777</v>
-      </c>
-      <c r="S90" t="s">
-        <v>448</v>
-      </c>
-      <c r="T90" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U90" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -8603,16 +8699,16 @@
         <v>478</v>
       </c>
       <c r="O91" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="P91" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="R91" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>454</v>
@@ -8629,13 +8725,13 @@
         <v>2008</v>
       </c>
       <c r="C92" t="s">
+        <v>589</v>
+      </c>
+      <c r="D92" t="s">
         <v>590</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>591</v>
-      </c>
-      <c r="E92" t="s">
-        <v>592</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -8659,13 +8755,13 @@
         <v>457</v>
       </c>
       <c r="O92" t="s">
+        <v>782</v>
+      </c>
+      <c r="P92" t="s">
         <v>783</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>784</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>785</v>
       </c>
       <c r="S92" t="s">
         <v>454</v>
@@ -8682,19 +8778,22 @@
         <v>2008</v>
       </c>
       <c r="C93" t="s">
+        <v>592</v>
+      </c>
+      <c r="D93" t="s">
         <v>593</v>
       </c>
-      <c r="D93" t="s">
-        <v>594</v>
-      </c>
       <c r="E93" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -8712,13 +8811,13 @@
         <v>478</v>
       </c>
       <c r="O93" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="P93" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q93" t="s">
         <v>786</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>787</v>
       </c>
       <c r="S93" t="s">
         <v>454</v>
@@ -8774,7 +8873,7 @@
         <v>448</v>
       </c>
       <c r="U94" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -8818,7 +8917,7 @@
         <v>457</v>
       </c>
       <c r="R95" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S95" t="s">
         <v>448</v>
@@ -8827,7 +8926,7 @@
         <v>448</v>
       </c>
       <c r="U95" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -8868,16 +8967,16 @@
         <v>457</v>
       </c>
       <c r="O96" t="s">
+        <v>793</v>
+      </c>
+      <c r="P96" t="s">
         <v>794</v>
       </c>
-      <c r="P96" t="s">
-        <v>795</v>
-      </c>
       <c r="Q96" t="s">
+        <v>791</v>
+      </c>
+      <c r="R96" t="s">
         <v>792</v>
-      </c>
-      <c r="R96" t="s">
-        <v>793</v>
       </c>
       <c r="S96" t="s">
         <v>454</v>
@@ -8927,25 +9026,25 @@
         <v>457</v>
       </c>
       <c r="O97" t="s">
+        <v>797</v>
+      </c>
+      <c r="P97" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>786</v>
+      </c>
+      <c r="R97" t="s">
+        <v>795</v>
+      </c>
+      <c r="S97" t="s">
+        <v>448</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U97" t="s">
         <v>798</v>
-      </c>
-      <c r="P97" t="s">
-        <v>797</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>787</v>
-      </c>
-      <c r="R97" t="s">
-        <v>796</v>
-      </c>
-      <c r="S97" t="s">
-        <v>448</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U97" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -8968,7 +9067,10 @@
         <v>17</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>14</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -8983,19 +9085,19 @@
         <v>45765.410416666666</v>
       </c>
       <c r="N98" t="s">
+        <v>800</v>
+      </c>
+      <c r="O98" t="s">
+        <v>803</v>
+      </c>
+      <c r="P98" t="s">
         <v>801</v>
       </c>
-      <c r="O98" t="s">
-        <v>804</v>
-      </c>
-      <c r="P98" t="s">
+      <c r="Q98" t="s">
         <v>802</v>
       </c>
-      <c r="Q98" t="s">
-        <v>803</v>
-      </c>
       <c r="R98" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S98" t="s">
         <v>454</v>
@@ -9024,7 +9126,10 @@
         <v>17</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>14</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -9042,16 +9147,16 @@
         <v>457</v>
       </c>
       <c r="O99" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P99" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q99" t="s">
         <v>806</v>
       </c>
-      <c r="Q99" t="s">
-        <v>807</v>
-      </c>
       <c r="R99" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="S99" t="s">
         <v>454</v>
@@ -9103,19 +9208,19 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R100" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T100" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U100" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -9147,16 +9252,16 @@
         <v>45765.436111111114</v>
       </c>
       <c r="R101" t="s">
+        <v>811</v>
+      </c>
+      <c r="S101" t="s">
+        <v>448</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U101" t="s">
         <v>812</v>
-      </c>
-      <c r="S101" t="s">
-        <v>448</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U101" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -9179,7 +9284,10 @@
         <v>17</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>14</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -9197,16 +9305,16 @@
         <v>457</v>
       </c>
       <c r="O102" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="P102" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="P102" s="1" t="s">
+      <c r="Q102" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="Q102" s="1" t="s">
-        <v>817</v>
-      </c>
       <c r="R102" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="S102" s="1" t="s">
         <v>454</v>
@@ -9235,7 +9343,10 @@
         <v>17</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>14</v>
       </c>
       <c r="I103" t="b">
         <v>1</v>
@@ -9253,16 +9364,16 @@
         <v>478</v>
       </c>
       <c r="O103" t="s">
+        <v>817</v>
+      </c>
+      <c r="P103" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>820</v>
+      </c>
+      <c r="R103" t="s">
         <v>818</v>
-      </c>
-      <c r="P103" t="s">
-        <v>820</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>821</v>
-      </c>
-      <c r="R103" t="s">
-        <v>819</v>
       </c>
       <c r="S103" t="s">
         <v>454</v>
@@ -9309,16 +9420,16 @@
         <v>457</v>
       </c>
       <c r="O104" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="P104" t="s">
         <v>823</v>
       </c>
-      <c r="P104" t="s">
+      <c r="Q104" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="Q104" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="R104" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="S104" s="1" t="s">
         <v>454</v>
@@ -9335,14 +9446,14 @@
         <v>2010</v>
       </c>
       <c r="C105" t="s">
+        <v>594</v>
+      </c>
+      <c r="D105" t="s">
         <v>595</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>596</v>
       </c>
-      <c r="E105" t="s">
-        <v>597</v>
-      </c>
       <c r="F105" t="s">
         <v>17</v>
       </c>
@@ -9359,7 +9470,7 @@
         <v>448</v>
       </c>
       <c r="U105" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -9370,10 +9481,10 @@
         <v>2010</v>
       </c>
       <c r="C106" t="s">
+        <v>597</v>
+      </c>
+      <c r="D106" t="s">
         <v>598</v>
-      </c>
-      <c r="D106" t="s">
-        <v>599</v>
       </c>
       <c r="E106" t="s">
         <v>268</v>
@@ -9397,7 +9508,7 @@
         <v>448</v>
       </c>
       <c r="U106" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -9420,7 +9531,10 @@
         <v>17</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>14</v>
       </c>
       <c r="I107" t="b">
         <v>1</v>
@@ -9438,16 +9552,16 @@
         <v>457</v>
       </c>
       <c r="O107" t="s">
+        <v>827</v>
+      </c>
+      <c r="P107" t="s">
         <v>828</v>
       </c>
-      <c r="P107" t="s">
+      <c r="Q107" t="s">
         <v>829</v>
       </c>
-      <c r="Q107" t="s">
-        <v>830</v>
-      </c>
       <c r="R107" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="S107" t="s">
         <v>454</v>
@@ -9494,16 +9608,16 @@
         <v>457</v>
       </c>
       <c r="O108" t="s">
+        <v>830</v>
+      </c>
+      <c r="P108" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q108" t="s">
         <v>831</v>
       </c>
-      <c r="P108" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>832</v>
-      </c>
-      <c r="R108" t="s">
-        <v>833</v>
       </c>
       <c r="S108" s="1" t="s">
         <v>454</v>
@@ -9559,7 +9673,7 @@
         <v>448</v>
       </c>
       <c r="U109" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -9603,22 +9717,22 @@
         <v>472</v>
       </c>
       <c r="O110" t="s">
+        <v>834</v>
+      </c>
+      <c r="P110" t="s">
         <v>835</v>
       </c>
-      <c r="P110" t="s">
+      <c r="R110" t="s">
         <v>836</v>
       </c>
-      <c r="R110" t="s">
+      <c r="S110" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U110" t="s">
         <v>837</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U110" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
@@ -9629,13 +9743,13 @@
         <v>2010</v>
       </c>
       <c r="C111" t="s">
+        <v>602</v>
+      </c>
+      <c r="D111" t="s">
         <v>603</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>604</v>
-      </c>
-      <c r="E111" t="s">
-        <v>605</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -9659,13 +9773,13 @@
         <v>457</v>
       </c>
       <c r="O111" t="s">
+        <v>838</v>
+      </c>
+      <c r="P111" t="s">
         <v>839</v>
       </c>
-      <c r="P111" t="s">
+      <c r="Q111" t="s">
         <v>840</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>841</v>
       </c>
       <c r="S111" t="s">
         <v>454</v>
@@ -9682,19 +9796,22 @@
         <v>2011</v>
       </c>
       <c r="C112" t="s">
+        <v>599</v>
+      </c>
+      <c r="D112" t="s">
         <v>600</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>601</v>
       </c>
-      <c r="E112" t="s">
-        <v>602</v>
-      </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>14</v>
       </c>
       <c r="I112" t="b">
         <v>1</v>
@@ -9712,13 +9829,13 @@
         <v>457</v>
       </c>
       <c r="O112" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P112" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q112" t="s">
         <v>842</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>843</v>
       </c>
       <c r="S112" s="1" t="s">
         <v>454</v>
@@ -9768,10 +9885,10 @@
         <v>472</v>
       </c>
       <c r="Q113" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R113" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="S113" t="s">
         <v>448</v>
@@ -9791,14 +9908,14 @@
         <v>2011</v>
       </c>
       <c r="C114" t="s">
+        <v>605</v>
+      </c>
+      <c r="D114" t="s">
         <v>606</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>607</v>
       </c>
-      <c r="E114" t="s">
-        <v>608</v>
-      </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9932,7 @@
         <v>448</v>
       </c>
       <c r="U114" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
@@ -9859,19 +9976,19 @@
         <v>457</v>
       </c>
       <c r="O115" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>845</v>
+      </c>
+      <c r="S115" t="s">
+        <v>448</v>
+      </c>
+      <c r="T115" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U115" t="s">
         <v>847</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>846</v>
-      </c>
-      <c r="S115" t="s">
-        <v>448</v>
-      </c>
-      <c r="T115" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U115" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
@@ -9915,7 +10032,7 @@
         <v>472</v>
       </c>
       <c r="R116" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="S116" s="1" t="s">
         <v>448</v>
@@ -9965,12 +10082,12 @@
         <v>512</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="S117" s="1" t="s">
         <v>448</v>
@@ -9979,7 +10096,7 @@
         <v>448</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
@@ -9990,19 +10107,22 @@
         <v>2012</v>
       </c>
       <c r="C118" t="s">
+        <v>608</v>
+      </c>
+      <c r="D118" t="s">
         <v>609</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>610</v>
       </c>
-      <c r="E118" t="s">
-        <v>611</v>
-      </c>
       <c r="F118" t="s">
         <v>17</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>14</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -10014,13 +10134,13 @@
         <v>478</v>
       </c>
       <c r="O118" t="s">
+        <v>852</v>
+      </c>
+      <c r="P118" t="s">
         <v>853</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>854</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>855</v>
       </c>
       <c r="S118" s="1" t="s">
         <v>454</v>
@@ -10061,7 +10181,7 @@
         <v>457</v>
       </c>
       <c r="R119" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S119" s="1" t="s">
         <v>454</v>
@@ -10070,7 +10190,7 @@
         <v>448</v>
       </c>
       <c r="U119" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
@@ -10114,7 +10234,7 @@
         <v>472</v>
       </c>
       <c r="R120" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="S120" s="1" t="s">
         <v>448</v>
@@ -10123,7 +10243,7 @@
         <v>448</v>
       </c>
       <c r="U120" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
@@ -10158,7 +10278,7 @@
         <v>512</v>
       </c>
       <c r="R121" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S121" s="1" t="s">
         <v>448</v>
@@ -10178,13 +10298,13 @@
         <v>2012</v>
       </c>
       <c r="C122" t="s">
+        <v>611</v>
+      </c>
+      <c r="D122" t="s">
         <v>612</v>
       </c>
-      <c r="D122" t="s">
-        <v>613</v>
-      </c>
       <c r="E122" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -10208,7 +10328,7 @@
         <v>448</v>
       </c>
       <c r="U122" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
@@ -10252,7 +10372,7 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S123" s="1" t="s">
         <v>448</v>
@@ -10302,7 +10422,7 @@
         <v>457</v>
       </c>
       <c r="R124" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="S124" s="1" t="s">
         <v>448</v>
@@ -10311,7 +10431,7 @@
         <v>448</v>
       </c>
       <c r="U124" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
@@ -10352,16 +10472,16 @@
         <v>457</v>
       </c>
       <c r="O125" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="P125" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="R125" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="P125" t="s">
-        <v>866</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>865</v>
       </c>
       <c r="S125" s="1" t="s">
         <v>454</v>
@@ -10411,11 +10531,11 @@
         <v>472</v>
       </c>
       <c r="O126" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P126" s="1"/>
       <c r="R126" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S126" s="1" t="s">
         <v>448</v>
@@ -10424,7 +10544,7 @@
         <v>448</v>
       </c>
       <c r="U126" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
@@ -10468,25 +10588,25 @@
         <v>472</v>
       </c>
       <c r="O127" t="s">
+        <v>869</v>
+      </c>
+      <c r="P127" t="s">
         <v>870</v>
       </c>
-      <c r="P127" t="s">
+      <c r="Q127" t="s">
         <v>871</v>
       </c>
-      <c r="Q127" t="s">
+      <c r="R127" t="s">
         <v>872</v>
       </c>
-      <c r="R127" t="s">
+      <c r="S127" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T127" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U127" t="s">
         <v>873</v>
-      </c>
-      <c r="S127" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T127" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U127" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -10509,7 +10629,10 @@
         <v>17</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>14</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
@@ -10527,13 +10650,13 @@
         <v>457</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="P128" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q128" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="R128" s="1"/>
       <c r="S128" s="1" t="s">
@@ -10563,7 +10686,10 @@
         <v>17</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>14</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
@@ -10581,16 +10707,16 @@
         <v>457</v>
       </c>
       <c r="O129" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="R129" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="S129" s="1" t="s">
         <v>454</v>
@@ -10637,16 +10763,16 @@
         <v>457</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P130" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q130" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="Q130" s="1" t="s">
+      <c r="R130" t="s">
         <v>883</v>
-      </c>
-      <c r="R130" t="s">
-        <v>884</v>
       </c>
       <c r="S130" s="1" t="s">
         <v>454</v>
@@ -10693,16 +10819,16 @@
         <v>457</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P131" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q131" t="s">
         <v>887</v>
       </c>
-      <c r="Q131" t="s">
-        <v>888</v>
-      </c>
       <c r="R131" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="S131" s="1" t="s">
         <v>454</v>
@@ -10752,25 +10878,25 @@
         <v>457</v>
       </c>
       <c r="O132" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="P132" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="P132" s="1" t="s">
+      <c r="Q132" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="Q132" s="1" t="s">
-        <v>894</v>
-      </c>
       <c r="R132" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U132" t="s">
         <v>890</v>
-      </c>
-      <c r="S132" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T132" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U132" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
@@ -10793,7 +10919,10 @@
         <v>17</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>14</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
@@ -10811,16 +10940,16 @@
         <v>457</v>
       </c>
       <c r="O133" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="P133" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="P133" s="1" t="s">
+      <c r="Q133" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="R133" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="R133" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="S133" s="1" t="s">
         <v>454</v>
@@ -10837,10 +10966,10 @@
         <v>2014</v>
       </c>
       <c r="C134" t="s">
+        <v>613</v>
+      </c>
+      <c r="D134" t="s">
         <v>614</v>
-      </c>
-      <c r="D134" t="s">
-        <v>615</v>
       </c>
       <c r="E134" t="s">
         <v>436</v>
@@ -10867,13 +10996,13 @@
         <v>457</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P134" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q134" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="S134" s="1" t="s">
         <v>454</v>
@@ -10923,16 +11052,16 @@
         <v>478</v>
       </c>
       <c r="R135" t="s">
+        <v>900</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T135" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U135" t="s">
         <v>901</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U135" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
@@ -10967,25 +11096,25 @@
         <v>472</v>
       </c>
       <c r="O136" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q136" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="P136" s="1" t="s">
+      <c r="R136" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="Q136" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="R136" s="1" t="s">
+      <c r="S136" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T136" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U136" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="S136" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T136" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
@@ -11020,7 +11149,7 @@
         <v>472</v>
       </c>
       <c r="R137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="S137" s="1" t="s">
         <v>448</v>
@@ -11061,7 +11190,7 @@
         <v>45768.571527777778</v>
       </c>
       <c r="R138" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="S138" s="1" t="s">
         <v>448</v>
@@ -11070,7 +11199,7 @@
         <v>448</v>
       </c>
       <c r="U138" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
@@ -11102,13 +11231,13 @@
         <v>45768.572916666664</v>
       </c>
       <c r="R139" t="s">
+        <v>1010</v>
+      </c>
+      <c r="T139" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U139" t="s">
         <v>1011</v>
-      </c>
-      <c r="T139" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U139" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
@@ -11119,13 +11248,13 @@
         <v>2014</v>
       </c>
       <c r="C140" t="s">
+        <v>615</v>
+      </c>
+      <c r="D140" t="s">
         <v>616</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>617</v>
-      </c>
-      <c r="E140" t="s">
-        <v>618</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -11143,22 +11272,22 @@
         <v>472</v>
       </c>
       <c r="O140" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P140" t="s">
         <v>1013</v>
       </c>
-      <c r="P140" t="s">
+      <c r="Q140" t="s">
         <v>1014</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="S140" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U140" t="s">
         <v>1015</v>
-      </c>
-      <c r="S140" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T140" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U140" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
@@ -11169,13 +11298,13 @@
         <v>2014</v>
       </c>
       <c r="C141" t="s">
+        <v>618</v>
+      </c>
+      <c r="D141" t="s">
         <v>619</v>
       </c>
-      <c r="D141" t="s">
-        <v>620</v>
-      </c>
       <c r="E141" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -11193,7 +11322,7 @@
         <v>448</v>
       </c>
       <c r="U141" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
@@ -11234,7 +11363,7 @@
         <v>448</v>
       </c>
       <c r="U142" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
@@ -11275,16 +11404,16 @@
         <v>457</v>
       </c>
       <c r="O143" t="s">
+        <v>902</v>
+      </c>
+      <c r="P143" t="s">
         <v>903</v>
       </c>
-      <c r="P143" t="s">
+      <c r="Q143" t="s">
+        <v>887</v>
+      </c>
+      <c r="R143" t="s">
         <v>904</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>888</v>
-      </c>
-      <c r="R143" t="s">
-        <v>905</v>
       </c>
       <c r="S143" t="s">
         <v>454</v>
@@ -11334,7 +11463,7 @@
         <v>457</v>
       </c>
       <c r="R144" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="S144" t="s">
         <v>448</v>
@@ -11343,7 +11472,7 @@
         <v>448</v>
       </c>
       <c r="U144" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
@@ -11390,7 +11519,7 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="S145" s="1" t="s">
         <v>448</v>
@@ -11399,7 +11528,7 @@
         <v>448</v>
       </c>
       <c r="U145" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
@@ -11440,16 +11569,16 @@
         <v>457</v>
       </c>
       <c r="O146" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="P146" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="P146" s="1" t="s">
+      <c r="Q146" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="Q146" s="1" t="s">
+      <c r="R146" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="R146" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="S146" s="1" t="s">
         <v>454</v>
@@ -11509,7 +11638,7 @@
         <v>448</v>
       </c>
       <c r="U147" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
@@ -11556,7 +11685,7 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="S148" s="1" t="s">
         <v>448</v>
@@ -11565,7 +11694,7 @@
         <v>448</v>
       </c>
       <c r="U148" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
@@ -11606,16 +11735,16 @@
         <v>457</v>
       </c>
       <c r="O149" t="s">
+        <v>916</v>
+      </c>
+      <c r="P149" t="s">
         <v>917</v>
       </c>
-      <c r="P149" t="s">
+      <c r="Q149" t="s">
         <v>918</v>
       </c>
-      <c r="Q149" t="s">
+      <c r="R149" t="s">
         <v>919</v>
-      </c>
-      <c r="R149" t="s">
-        <v>920</v>
       </c>
       <c r="S149" s="1" t="s">
         <v>454</v>
@@ -11644,7 +11773,10 @@
         <v>17</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>14</v>
       </c>
       <c r="I150" t="b">
         <v>1</v>
@@ -11662,16 +11794,16 @@
         <v>457</v>
       </c>
       <c r="O150" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="R150" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q150" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="R150" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="S150" s="1" t="s">
         <v>454</v>
@@ -11718,7 +11850,7 @@
         <v>448</v>
       </c>
       <c r="U151" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
@@ -11759,16 +11891,16 @@
         <v>472</v>
       </c>
       <c r="O152" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P152" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="P152" s="1" t="s">
+      <c r="Q152" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="Q152" s="1" t="s">
+      <c r="R152" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="R152" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="S152" s="1" t="s">
         <v>454</v>
@@ -11797,7 +11929,10 @@
         <v>17</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>14</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
@@ -11815,16 +11950,16 @@
         <v>472</v>
       </c>
       <c r="O153" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P153" t="s">
         <v>1021</v>
       </c>
-      <c r="P153" t="s">
+      <c r="Q153" t="s">
         <v>1022</v>
       </c>
-      <c r="Q153" t="s">
+      <c r="R153" t="s">
         <v>1023</v>
-      </c>
-      <c r="R153" t="s">
-        <v>1024</v>
       </c>
       <c r="S153" s="1" t="s">
         <v>454</v>
@@ -11884,7 +12019,7 @@
         <v>448</v>
       </c>
       <c r="U154" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
@@ -11938,7 +12073,7 @@
         <v>448</v>
       </c>
       <c r="U155" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
@@ -11985,16 +12120,16 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U156" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="S156" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T156" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U156" s="1" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
@@ -12017,7 +12152,10 @@
         <v>17</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>14</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
@@ -12035,16 +12173,16 @@
         <v>457</v>
       </c>
       <c r="O157" t="s">
+        <v>926</v>
+      </c>
+      <c r="P157" t="s">
         <v>927</v>
       </c>
-      <c r="P157" t="s">
+      <c r="Q157" t="s">
         <v>928</v>
       </c>
-      <c r="Q157" t="s">
+      <c r="R157" t="s">
         <v>929</v>
-      </c>
-      <c r="R157" t="s">
-        <v>930</v>
       </c>
       <c r="S157" t="s">
         <v>454</v>
@@ -12073,7 +12211,10 @@
         <v>17</v>
       </c>
       <c r="G158" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>14</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
@@ -12091,16 +12232,16 @@
         <v>457</v>
       </c>
       <c r="O158" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="P158" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="P158" s="1" t="s">
+      <c r="Q158" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="Q158" s="1" t="s">
+      <c r="R158" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="R158" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="S158" s="1" t="s">
         <v>454</v>
@@ -12138,7 +12279,7 @@
         <v>45768.620833333334</v>
       </c>
       <c r="R159" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="S159" s="1" t="s">
         <v>448</v>
@@ -12147,7 +12288,7 @@
         <v>448</v>
       </c>
       <c r="U159" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
@@ -12188,16 +12329,16 @@
         <v>457</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P160" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q160" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="Q160" s="1" t="s">
+      <c r="R160" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="S160" s="1" t="s">
         <v>454</v>
@@ -12247,16 +12388,16 @@
         <v>457</v>
       </c>
       <c r="R161" t="s">
+        <v>938</v>
+      </c>
+      <c r="S161" t="s">
+        <v>448</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U161" t="s">
         <v>939</v>
-      </c>
-      <c r="S161" t="s">
-        <v>448</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U161" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
@@ -12294,7 +12435,7 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S162" s="1" t="s">
         <v>448</v>
@@ -12344,16 +12485,16 @@
         <v>457</v>
       </c>
       <c r="O163" t="s">
+        <v>941</v>
+      </c>
+      <c r="P163" t="s">
         <v>942</v>
       </c>
-      <c r="P163" t="s">
+      <c r="Q163" t="s">
         <v>943</v>
       </c>
-      <c r="Q163" t="s">
+      <c r="R163" t="s">
         <v>944</v>
-      </c>
-      <c r="R163" t="s">
-        <v>945</v>
       </c>
       <c r="S163" t="s">
         <v>454</v>
@@ -12403,7 +12544,7 @@
         <v>457</v>
       </c>
       <c r="R164" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="S164" s="1" t="s">
         <v>448</v>
@@ -12412,7 +12553,7 @@
         <v>448</v>
       </c>
       <c r="U164" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
@@ -12423,13 +12564,13 @@
         <v>2018</v>
       </c>
       <c r="C165" t="s">
+        <v>620</v>
+      </c>
+      <c r="D165" t="s">
         <v>621</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>622</v>
-      </c>
-      <c r="E165" t="s">
-        <v>623</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
@@ -12450,16 +12591,16 @@
         <v>45768.402083333334</v>
       </c>
       <c r="N165" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O165" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P165" t="s">
+        <v>947</v>
+      </c>
+      <c r="Q165" t="s">
         <v>948</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>949</v>
       </c>
       <c r="S165" t="s">
         <v>454</v>
@@ -12506,7 +12647,7 @@
         <v>45768.626388888886</v>
       </c>
       <c r="R166" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S166" s="1" t="s">
         <v>448</v>
@@ -12544,7 +12685,7 @@
         <v>45768.408333333333</v>
       </c>
       <c r="R167" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="S167" t="s">
         <v>448</v>
@@ -12553,7 +12694,7 @@
         <v>448</v>
       </c>
       <c r="U167" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
@@ -12594,7 +12735,7 @@
         <v>45768.627083333333</v>
       </c>
       <c r="R168" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="S168" s="1" t="s">
         <v>448</v>
@@ -12647,7 +12788,7 @@
         <v>457</v>
       </c>
       <c r="R169" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="S169" t="s">
         <v>448</v>
@@ -12656,7 +12797,7 @@
         <v>448</v>
       </c>
       <c r="U169" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
@@ -12694,12 +12835,12 @@
         <v>457</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="S170" s="1" t="s">
         <v>454</v>
@@ -12749,12 +12890,12 @@
         <v>457</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="S171" s="1" t="s">
         <v>448</v>
@@ -12763,7 +12904,7 @@
         <v>448</v>
       </c>
       <c r="U171" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
@@ -12804,7 +12945,7 @@
         <v>45768.629861111112</v>
       </c>
       <c r="R172" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="S172" s="1" t="s">
         <v>448</v>
@@ -12851,7 +12992,7 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="S173" s="1" t="s">
         <v>448</v>
@@ -12860,7 +13001,7 @@
         <v>448</v>
       </c>
       <c r="U173" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
@@ -12901,7 +13042,7 @@
         <v>45768.633333333331</v>
       </c>
       <c r="R174" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="S174" s="1" t="s">
         <v>448</v>
@@ -12954,7 +13095,7 @@
         <v>457</v>
       </c>
       <c r="R175" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="S175" s="1" t="s">
         <v>448</v>
@@ -12963,7 +13104,7 @@
         <v>448</v>
       </c>
       <c r="U175" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
@@ -12986,7 +13127,10 @@
         <v>17</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>14</v>
       </c>
       <c r="I176" t="b">
         <v>0</v>
@@ -13004,16 +13148,16 @@
         <v>457</v>
       </c>
       <c r="O176" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P176" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q176" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="Q176" s="1" t="s">
-        <v>966</v>
-      </c>
       <c r="R176" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="S176" s="1" t="s">
         <v>454</v>
@@ -13066,16 +13210,16 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U177" t="s">
         <v>968</v>
-      </c>
-      <c r="S177" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T177" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U177" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
@@ -13113,7 +13257,7 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="S178" s="1" t="s">
         <v>448</v>
@@ -13122,7 +13266,7 @@
         <v>448</v>
       </c>
       <c r="U178" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
@@ -13167,7 +13311,7 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="S179" s="1" t="s">
         <v>448</v>
@@ -13199,7 +13343,10 @@
         <v>17</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>14</v>
       </c>
       <c r="I180" t="b">
         <v>1</v>
@@ -13217,16 +13364,16 @@
         <v>472</v>
       </c>
       <c r="O180" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="P180" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q180" t="s">
         <v>1036</v>
       </c>
-      <c r="Q180" t="s">
+      <c r="R180" t="s">
         <v>1037</v>
-      </c>
-      <c r="R180" t="s">
-        <v>1038</v>
       </c>
       <c r="S180" s="1" t="s">
         <v>454</v>
@@ -13273,16 +13420,16 @@
         <v>457</v>
       </c>
       <c r="O181" t="s">
+        <v>969</v>
+      </c>
+      <c r="P181" t="s">
         <v>970</v>
       </c>
-      <c r="P181" t="s">
+      <c r="Q181" t="s">
         <v>971</v>
       </c>
-      <c r="Q181" t="s">
+      <c r="R181" t="s">
         <v>972</v>
-      </c>
-      <c r="R181" t="s">
-        <v>973</v>
       </c>
       <c r="S181" t="s">
         <v>454</v>
@@ -13351,7 +13498,10 @@
         <v>17</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>14</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
@@ -13369,16 +13519,16 @@
         <v>472</v>
       </c>
       <c r="O183" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P183" t="s">
         <v>1040</v>
       </c>
-      <c r="P183" t="s">
+      <c r="Q183" t="s">
         <v>1041</v>
       </c>
-      <c r="Q183" t="s">
+      <c r="R183" t="s">
         <v>1042</v>
-      </c>
-      <c r="R183" t="s">
-        <v>1043</v>
       </c>
       <c r="S183" s="1" t="s">
         <v>454</v>
@@ -13407,7 +13557,10 @@
         <v>17</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>14</v>
       </c>
       <c r="I184" t="b">
         <v>0</v>
@@ -13425,16 +13578,16 @@
         <v>457</v>
       </c>
       <c r="O184" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="P184" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="P184" s="1" t="s">
+      <c r="Q184" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="Q184" s="1" t="s">
+      <c r="R184" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="R184" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="S184" s="1" t="s">
         <v>454</v>
@@ -13463,7 +13616,10 @@
         <v>17</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>14</v>
       </c>
       <c r="I185" t="b">
         <v>1</v>
@@ -13481,16 +13637,16 @@
         <v>457</v>
       </c>
       <c r="O185" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="P185" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="P185" s="1" t="s">
+      <c r="Q185" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="Q185" s="1" t="s">
+      <c r="R185" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="R185" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="S185" s="1" t="s">
         <v>454</v>
@@ -13537,16 +13693,16 @@
         <v>457</v>
       </c>
       <c r="O186" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="R186" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="P186" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="R186" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="S186" s="1" t="s">
         <v>454</v>
@@ -13575,7 +13731,10 @@
         <v>17</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>14</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
@@ -13593,16 +13752,16 @@
         <v>472</v>
       </c>
       <c r="O187" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P187" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="P187" s="1" t="s">
+      <c r="Q187" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="Q187" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="R187" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="S187" s="1" t="s">
         <v>454</v>
@@ -13643,25 +13802,25 @@
         <v>457</v>
       </c>
       <c r="O188" t="s">
+        <v>986</v>
+      </c>
+      <c r="P188" t="s">
         <v>987</v>
       </c>
-      <c r="P188" t="s">
+      <c r="Q188" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="Q188" s="1" t="s">
+      <c r="R188" t="s">
         <v>989</v>
       </c>
-      <c r="R188" t="s">
+      <c r="S188" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U188" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="S188" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T188" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U188" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
@@ -13672,10 +13831,10 @@
         <v>2024</v>
       </c>
       <c r="D189" t="s">
+        <v>623</v>
+      </c>
+      <c r="E189" t="s">
         <v>624</v>
-      </c>
-      <c r="E189" t="s">
-        <v>625</v>
       </c>
       <c r="F189" t="s">
         <v>17</v>
@@ -13699,7 +13858,7 @@
         <v>448</v>
       </c>
       <c r="U189" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
@@ -13710,10 +13869,10 @@
         <v>2024</v>
       </c>
       <c r="D190" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E190" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F190" t="s">
         <v>17</v>
@@ -13734,7 +13893,7 @@
         <v>448</v>
       </c>
       <c r="U190" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
@@ -13745,10 +13904,10 @@
         <v>2009</v>
       </c>
       <c r="C191" t="s">
+        <v>626</v>
+      </c>
+      <c r="D191" t="s">
         <v>627</v>
-      </c>
-      <c r="D191" t="s">
-        <v>628</v>
       </c>
       <c r="F191" t="s">
         <v>17</v>
@@ -13775,16 +13934,16 @@
         <v>457</v>
       </c>
       <c r="R191" t="s">
+        <v>992</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U191" t="s">
         <v>993</v>
-      </c>
-      <c r="S191" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="T191" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U191" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
@@ -13795,10 +13954,10 @@
         <v>2016</v>
       </c>
       <c r="C192" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D192" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F192" t="s">
         <v>17</v>
@@ -13822,13 +13981,13 @@
         <v>457</v>
       </c>
       <c r="O192" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P192" t="s">
         <v>1048</v>
       </c>
-      <c r="P192" t="s">
+      <c r="Q192" t="s">
         <v>1049</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>1050</v>
       </c>
       <c r="S192" t="s">
         <v>454</v>
@@ -13845,10 +14004,10 @@
         <v>2015</v>
       </c>
       <c r="D193" t="s">
+        <v>629</v>
+      </c>
+      <c r="E193" t="s">
         <v>630</v>
-      </c>
-      <c r="E193" t="s">
-        <v>631</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -13875,7 +14034,7 @@
         <v>457</v>
       </c>
       <c r="R193" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="S193" t="s">
         <v>448</v>
@@ -13884,7 +14043,7 @@
         <v>448</v>
       </c>
       <c r="U193" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.2">
@@ -13895,13 +14054,13 @@
         <v>1995</v>
       </c>
       <c r="C194" t="s">
+        <v>997</v>
+      </c>
+      <c r="D194" t="s">
+        <v>631</v>
+      </c>
+      <c r="E194" t="s">
         <v>998</v>
-      </c>
-      <c r="D194" t="s">
-        <v>632</v>
-      </c>
-      <c r="E194" t="s">
-        <v>999</v>
       </c>
       <c r="F194" t="s">
         <v>17</v>
@@ -13916,7 +14075,7 @@
         <v>45768.674305555556</v>
       </c>
       <c r="R194" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S194" t="s">
         <v>448</v>
@@ -13925,7 +14084,7 @@
         <v>448</v>
       </c>
       <c r="U194" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
@@ -13936,13 +14095,13 @@
         <v>2007</v>
       </c>
       <c r="C195" t="s">
+        <v>999</v>
+      </c>
+      <c r="D195" t="s">
+        <v>632</v>
+      </c>
+      <c r="E195" t="s">
         <v>1000</v>
-      </c>
-      <c r="D195" t="s">
-        <v>633</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1001</v>
       </c>
       <c r="F195" t="s">
         <v>17</v>
@@ -13969,7 +14128,7 @@
         <v>457</v>
       </c>
       <c r="R195" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="S195" t="s">
         <v>448</v>

--- a/input/raw_data/final_report/bib_search_screen_end.xlsx
+++ b/input/raw_data/final_report/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF27FE91-7CAC-2640-B819-FE17F1DE9C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E0342C-DA6D-5540-A5FC-842D13FFF75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20520" yWindow="880" windowWidth="20600" windowHeight="24440" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -4056,9 +4056,9 @@
   <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
